--- a/college/magtu-parser-ed/ready_table.xlsx
+++ b/college/magtu-parser-ed/ready_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="1">
   <si>
     <t>08.02.01</t>
   </si>
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,84 +69,985 @@
       <c r="A1" t="n">
         <v>1.0</v>
       </c>
+      <c r="D1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5.0</v>
       </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5.0</v>
       </c>
+      <c r="D4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5.0</v>
       </c>
+      <c r="D5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5.0</v>
       </c>
+      <c r="D6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5.0</v>
       </c>
+      <c r="D7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5.0</v>
       </c>
+      <c r="D8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5.0</v>
       </c>
+      <c r="D9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5.0</v>
       </c>
+      <c r="D10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5.0</v>
       </c>
+      <c r="D11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5.0</v>
       </c>
+      <c r="D12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5.0</v>
       </c>
+      <c r="D13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5.0</v>
       </c>
+      <c r="D14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5.0</v>
       </c>
+      <c r="D15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10.0</v>
       </c>
+      <c r="D16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17"/>
+      <c r="D17"/>
+      <c r="G17"/>
+      <c r="J17"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="D35"/>
+      <c r="G35"/>
+      <c r="J35"/>
+      <c r="M35"/>
+      <c r="P35"/>
+      <c r="S35"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="D53"/>
+      <c r="G53"/>
+      <c r="J53"/>
+      <c r="M53"/>
+      <c r="P53"/>
+      <c r="S53"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/college/magtu-parser-ed/ready_table.xlsx
+++ b/college/magtu-parser-ed/ready_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="18">
   <si>
     <t>number</t>
   </si>
@@ -20,7 +20,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>some_code</t>
+    <t>08.02.01</t>
   </si>
   <si>
     <t>newStudents</t>
@@ -187,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -212,6 +212,12 @@
       <c r="H1" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -232,25 +238,37 @@
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -258,19 +276,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -278,19 +302,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -298,19 +328,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -318,19 +354,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -338,19 +380,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -358,19 +406,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -378,19 +432,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -398,19 +458,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -418,19 +484,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -438,19 +510,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -458,19 +536,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -478,19 +562,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -498,19 +588,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="17">
@@ -526,6 +622,10 @@
         <v>17</v>
       </c>
       <c r="H17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -546,6 +646,30 @@
       <c r="H19" s="1" t="n">
         <v>1.0</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -566,25 +690,73 @@
       <c r="H20" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
@@ -592,19 +764,43 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -612,19 +808,43 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -632,19 +852,43 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -652,19 +896,43 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
@@ -672,19 +940,43 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -692,19 +984,43 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -712,19 +1028,43 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
@@ -732,19 +1072,43 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
@@ -752,19 +1116,43 @@
         <v>12</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -772,19 +1160,43 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -792,19 +1204,43 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
@@ -812,19 +1248,43 @@
         <v>15</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -832,19 +1292,43 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="35">
@@ -860,6 +1344,2958 @@
         <v>17</v>
       </c>
       <c r="H35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T47" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T48" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T50" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="P53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T64" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="M71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="P71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q71" s="1"/>
+      <c r="S71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T75" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T86" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T87" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="M89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="P89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q89" s="1"/>
+      <c r="S89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T93" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q95" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T95" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q96" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T96" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q97" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T97" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q98" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T98" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q99" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T99" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T100" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q101" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T101" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T102" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q103" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T103" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T104" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N106" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q106" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T106" s="1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="G107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="J107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="M107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="P107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q107" s="1"/>
+      <c r="S107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T107" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/college/magtu-parser-ed/ready_table.xlsx
+++ b/college/magtu-parser-ed/ready_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="56">
   <si>
     <t>01.08.2021</t>
   </si>
@@ -1018,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1059,11 +1059,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
@@ -1087,12 +1083,6 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
-      <c r="P4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="7"/>
@@ -1122,14 +1112,6 @@
         <v>7</v>
       </c>
       <c r="O5" s="14"/>
-      <c r="P5" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="S5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
@@ -1171,18 +1153,6 @@
       <c r="O6" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="P6" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q6" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="R6" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="S6" t="s" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -1228,18 +1198,6 @@
       <c r="O7" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P7" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q7" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -1285,18 +1243,6 @@
       <c r="O8" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P8" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="Q8" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R8" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="S8" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -1342,18 +1288,6 @@
       <c r="O9" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P9" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="Q9" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R9" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="S9" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -1399,18 +1333,6 @@
       <c r="O10" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P10" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q10" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R10" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S10" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -1456,18 +1378,6 @@
       <c r="O11" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P11" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q11" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R11" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S11" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -1513,18 +1423,6 @@
       <c r="O12" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P12" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q12" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R12" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S12" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -1570,18 +1468,6 @@
       <c r="O13" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P13" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q13" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R13" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S13" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -1627,18 +1513,6 @@
       <c r="O14" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P14" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q14" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R14" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S14" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -1684,18 +1558,6 @@
       <c r="O15" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P15" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q15" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R15" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S15" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -1741,18 +1603,6 @@
       <c r="O16" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P16" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q16" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R16" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S16" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -1798,18 +1648,6 @@
       <c r="O17" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P17" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q17" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R17" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S17" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -1855,18 +1693,6 @@
       <c r="O18" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P18" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q18" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R18" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -1912,18 +1738,6 @@
       <c r="O19" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P19" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q19" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R19" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S19" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -1969,18 +1783,6 @@
       <c r="O20" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P20" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q20" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R20" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S20" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -2026,18 +1828,6 @@
       <c r="O21" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P21" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q21" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R21" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S21" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -2083,18 +1873,6 @@
       <c r="O22" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P22" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q22" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R22" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S22" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -2140,18 +1918,6 @@
       <c r="O23" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P23" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q23" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R23" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S23" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -2197,18 +1963,6 @@
       <c r="O24" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P24" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q24" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R24" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S24" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -2254,18 +2008,6 @@
       <c r="O25" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P25" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q25" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R25" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S25" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -2311,18 +2053,6 @@
       <c r="O26" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P26" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q26" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R26" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S26" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -2368,18 +2098,6 @@
       <c r="O27" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P27" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q27" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R27" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S27" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -2425,18 +2143,6 @@
       <c r="O28" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P28" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q28" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R28" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S28" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -2482,18 +2188,6 @@
       <c r="O29" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P29" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q29" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R29" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S29" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -2539,36 +2233,21 @@
       <c r="O30" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="P30" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="Q30" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="R30" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="S30" t="s" s="1">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="37">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="D3:O3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B27:C27"/>

--- a/college/magtu-parser-ed/ready_table.xlsx
+++ b/college/magtu-parser-ed/ready_table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="56">
   <si>
     <t>01.08.2021</t>
   </si>
@@ -1018,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2234,8 +2234,1214 @@
         <v>42</v>
       </c>
     </row>
+    <row r="35">
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" t="s" s="12">
+        <v>4</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="9"/>
+      <c r="D38" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="L38" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="7"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="N39" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14"/>
+      <c r="D40" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="N40" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="O40" t="s" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N41" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O41" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J42" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L42" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="M42" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N42" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="K43" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L43" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="M43" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N43" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="O43" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N44" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O44" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N45" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O45" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N46" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O46" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O47" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N48" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O48" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N49" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O49" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N50" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O50" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N51" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O51" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N52" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O52" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N53" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O53" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N54" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O54" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N55" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O55" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N56" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O56" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N57" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O57" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N58" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O58" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N59" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O59" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N60" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O60" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N61" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O61" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N62" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O62" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N63" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O63" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="H64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="K64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="L64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="M64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="N64" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="O64" t="s" s="1">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="74">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="D3:O3"/>
@@ -2273,6 +3479,43 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:C39"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
